--- a/data/trans_orig/P36BPD07_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>148046</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>126441</v>
+        <v>128013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168914</v>
+        <v>169081</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2568481946494532</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2193656876078092</v>
+        <v>0.222093416073698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2930521719950698</v>
+        <v>0.2933435894754215</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>287</v>
@@ -762,19 +762,19 @@
         <v>186401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>166552</v>
+        <v>166599</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>207708</v>
+        <v>206697</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2267542566787986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2026088269736854</v>
+        <v>0.2026661316936781</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2526744273974381</v>
+        <v>0.2514445505729819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>454</v>
@@ -783,19 +783,19 @@
         <v>334446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306396</v>
+        <v>305675</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>364710</v>
+        <v>365351</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2391581254607613</v>
+        <v>0.2391581254607612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2190994790007105</v>
+        <v>0.2185842488402167</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2607990084097763</v>
+        <v>0.2612577046784331</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>428348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407480</v>
+        <v>407313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449953</v>
+        <v>448381</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7431518053505468</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7069478280049303</v>
+        <v>0.7066564105245786</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7806343123921907</v>
+        <v>0.7779065839263022</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1140</v>
@@ -833,19 +833,19 @@
         <v>635637</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>614330</v>
+        <v>615341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>655486</v>
+        <v>655439</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7732457433212014</v>
+        <v>0.7732457433212013</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7473255726025618</v>
+        <v>0.7485554494270181</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7973911730263147</v>
+        <v>0.7973338683063219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1662</v>
@@ -854,19 +854,19 @@
         <v>1063986</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1033722</v>
+        <v>1033081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1092036</v>
+        <v>1092757</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7608418745392386</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7392009915902237</v>
+        <v>0.7387422953215671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7809005209992895</v>
+        <v>0.7814157511597833</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>722716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>666754</v>
+        <v>674768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>775425</v>
+        <v>777199</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3244446511206911</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2993222376380321</v>
+        <v>0.3029199513175741</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3481070536457213</v>
+        <v>0.3489036663257387</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>675</v>
@@ -979,19 +979,19 @@
         <v>575468</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>538348</v>
+        <v>537490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>615954</v>
+        <v>615243</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.265633160168415</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.248498859662201</v>
+        <v>0.2481027422202894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2843213020781059</v>
+        <v>0.2839931261798547</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1281</v>
@@ -1000,19 +1000,19 @@
         <v>1298184</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1235681</v>
+        <v>1236028</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1369854</v>
+        <v>1372694</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2954481100921991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2812233768796207</v>
+        <v>0.2813023106840272</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3117591698673117</v>
+        <v>0.3124055151739527</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1504831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1452122</v>
+        <v>1450348</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1560793</v>
+        <v>1552779</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6755553488793089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6518929463542786</v>
+        <v>0.6510963336742612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7006777623619677</v>
+        <v>0.6970800486824257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2239</v>
@@ -1050,19 +1050,19 @@
         <v>1590934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1550448</v>
+        <v>1551159</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1628054</v>
+        <v>1628912</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.734366839831585</v>
+        <v>0.7343668398315849</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7156786979218943</v>
+        <v>0.7160068738201456</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7515011403377991</v>
+        <v>0.7518972577797107</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3622</v>
@@ -1071,19 +1071,19 @@
         <v>3095765</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3024095</v>
+        <v>3021255</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3158268</v>
+        <v>3157921</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7045518899078009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6882408301326883</v>
+        <v>0.6875944848260475</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7187766231203792</v>
+        <v>0.7186976893159729</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>133536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113430</v>
+        <v>113083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159961</v>
+        <v>156390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1876590365345441</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1594049074100806</v>
+        <v>0.1589160120351907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2247953175479739</v>
+        <v>0.2197769640980501</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>146</v>
@@ -1196,19 +1196,19 @@
         <v>121022</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103357</v>
+        <v>101923</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139799</v>
+        <v>140921</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1651085459392148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1410077189807832</v>
+        <v>0.1390517174774063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1907259450952868</v>
+        <v>0.1922569673885179</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>271</v>
@@ -1217,19 +1217,19 @@
         <v>254558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227661</v>
+        <v>224797</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>286775</v>
+        <v>285563</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.176216774100634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1575972527170385</v>
+        <v>0.1556148005984384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1985187380157908</v>
+        <v>0.1976799767426315</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>578051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>551626</v>
+        <v>555197</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>598157</v>
+        <v>598504</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8123409634654559</v>
+        <v>0.8123409634654557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7752046824520262</v>
+        <v>0.78022303590195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8405950925899195</v>
+        <v>0.8410839879648093</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>855</v>
@@ -1267,19 +1267,19 @@
         <v>611963</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>593186</v>
+        <v>592064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>629628</v>
+        <v>631062</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8348914540607852</v>
+        <v>0.8348914540607851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8092740549047134</v>
+        <v>0.8077430326114822</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8589922810192168</v>
+        <v>0.8609482825225938</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1411</v>
@@ -1288,19 +1288,19 @@
         <v>1190014</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1157797</v>
+        <v>1159009</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1216911</v>
+        <v>1219775</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.823783225899366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8014812619842091</v>
+        <v>0.802320023257368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8424027472829614</v>
+        <v>0.8443851994015613</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>1004297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>947142</v>
+        <v>946000</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1066147</v>
+        <v>1063138</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2856746411260054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2694166800426765</v>
+        <v>0.2690919730438621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3032680700791803</v>
+        <v>0.3024120230403893</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1108</v>
@@ -1413,19 +1413,19 @@
         <v>882891</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>834118</v>
+        <v>837217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>928882</v>
+        <v>933850</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2372453838115209</v>
+        <v>0.237245383811521</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2241394952388053</v>
+        <v>0.2249722506575905</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2496037826887545</v>
+        <v>0.2509388061688787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2006</v>
@@ -1434,19 +1434,19 @@
         <v>1887188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1808141</v>
+        <v>1804841</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1965282</v>
+        <v>1963967</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2607710885791434</v>
+        <v>0.2607710885791433</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.249848385022332</v>
+        <v>0.2493923677162886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2715620524974383</v>
+        <v>0.2713803787651051</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2511231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2449381</v>
+        <v>2452390</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2568386</v>
+        <v>2569528</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7143253588739947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6967319299208199</v>
+        <v>0.6975879769596106</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7305833199573236</v>
+        <v>0.7309080269561378</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4234</v>
@@ -1484,19 +1484,19 @@
         <v>2838534</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2792543</v>
+        <v>2787575</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2887307</v>
+        <v>2884208</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7627546161884788</v>
+        <v>0.762754616188479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7503962173112453</v>
+        <v>0.7490611938311212</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7758605047611946</v>
+        <v>0.7750277493424096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6695</v>
@@ -1505,19 +1505,19 @@
         <v>5349765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5271671</v>
+        <v>5272986</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5428812</v>
+        <v>5432112</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7392289114208566</v>
+        <v>0.7392289114208567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7284379475025617</v>
+        <v>0.728619621234895</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7501516149776684</v>
+        <v>0.7506076322837119</v>
       </c>
     </row>
     <row r="15">
